--- a/medicine/Mort/Terrorisme_en_1948/Terrorisme_en_1948.xlsx
+++ b/medicine/Mort/Terrorisme_en_1948/Terrorisme_en_1948.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -481,6 +491,8 @@
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,28 +520,162 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Janvier
-Février
-Mars
-Avril
-Mai
-Juin
-Juillet
-France, 1er juillet 1948 : quatre parachutistes incendient le siège du parti communiste à Saint-Brieuc.[réf. nécessaire]
-Italie, 14 juillet 1948 : Palmiro Togliatti, secrétaire générale du parti communiste italien est blessé par balles alors qu'il sortait de la Chambre des députés.[réf. nécessaire][1]
+          <t>Juillet</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>France, 1er juillet 1948 : quatre parachutistes incendient le siège du parti communiste à Saint-Brieuc.[réf. nécessaire]
+Italie, 14 juillet 1948 : Palmiro Togliatti, secrétaire générale du parti communiste italien est blessé par balles alors qu'il sortait de la Chambre des députés.[réf. nécessaire]
 Japon, 21 juillet 1948 : Kiichi Tokuda, leader communiste japonais est blessé par une bombe lors d'une réunion publique à Saga.[réf. nécessaire]
-États-Unis, 24 juillet 1948 : un avion de type Aeronca survole Lake Success et y lâche une bombe qui ne fera aucun dégâts. Le pilote atterrit à La Guardia Airport avant de fuir. L'auteur souffrait de troubles mentaux et haïssait l'ONU.[réf. nécessaire]
-Août
-Israël, 14 août 1948 : la station de pompage d'eau potable de Latroun est détruite par une bombe.[réf. nécessaire]
-Septembre
-Indochine, 16 septembre 1948 : des grenades sont lancées par le Việt Minh contre un train à Hanoï, tuant un militaire français et blessant plusieurs personnes.[réf. nécessaire]
-Israël, 17 septembre 1948 : un commando du Lehi vise et tue Folke Bernadotte, médiateur des Nations unies, ainsi que le colonel français André Sérot, dans leur voiture, à Jérusalem[2].
-Birmanie, 18 septembre 1948 : l'ancien ministre des affaires étrangères birmans U Tin Tut est la cible d'une grenade alors qu'il se trouve dans sa voiture. Il est blessé.[réf. nécessaire]
-Octobre
-France, 30 octobre 1948 : le maire de Troyes et sa femme sont la cible de coups de feu alors qu'ils sortent en voiture de leur domicile, à 21 heures 30.[réf. nécessaire]
-Novembre
-Décembre
-France, 12 décembre 1948 : une bombe explose dans la nuit au 85 avenue de la Grande-Armée, adresse où se situe notamment l'Agence juive pour la Palestine et l'Union mondiale des combattants juifs.[réf. nécessaire]
+États-Unis, 24 juillet 1948 : un avion de type Aeronca survole Lake Success et y lâche une bombe qui ne fera aucun dégâts. Le pilote atterrit à La Guardia Airport avant de fuir. L'auteur souffrait de troubles mentaux et haïssait l'ONU.[réf. nécessaire]</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1948</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1948</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Août</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Israël, 14 août 1948 : la station de pompage d'eau potable de Latroun est détruite par une bombe.[réf. nécessaire]</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1948</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1948</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Septembre</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Indochine, 16 septembre 1948 : des grenades sont lancées par le Việt Minh contre un train à Hanoï, tuant un militaire français et blessant plusieurs personnes.[réf. nécessaire]
+Israël, 17 septembre 1948 : un commando du Lehi vise et tue Folke Bernadotte, médiateur des Nations unies, ainsi que le colonel français André Sérot, dans leur voiture, à Jérusalem.
+Birmanie, 18 septembre 1948 : l'ancien ministre des affaires étrangères birmans U Tin Tut est la cible d'une grenade alors qu'il se trouve dans sa voiture. Il est blessé.[réf. nécessaire]</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1948</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1948</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Octobre</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>France, 30 octobre 1948 : le maire de Troyes et sa femme sont la cible de coups de feu alors qu'ils sortent en voiture de leur domicile, à 21 heures 30.[réf. nécessaire]</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1948</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1948</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Décembre</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>France, 12 décembre 1948 : une bombe explose dans la nuit au 85 avenue de la Grande-Armée, adresse où se situe notamment l'Agence juive pour la Palestine et l'Union mondiale des combattants juifs.[réf. nécessaire]
 Allemagne, 30 décembre 1948 : Wilhelmine Sass, actrice, est assassinée par un extrémiste danois après avoir joué pour la minorité allemande de Luegumklester.[réf. nécessaire]</t>
         </is>
       </c>
